--- a/latest.xlsx
+++ b/latest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kidan\Desktop\DS\playbook\streambase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F099A96-674A-48AB-8B60-5FA7154C47C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587E382A-B761-457F-8C7D-A4D083319602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="503" windowWidth="20715" windowHeight="13274" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3048,7 +3048,7 @@
   <dimension ref="A1:E614"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
